--- a/NformTester/NformTester/Keywordscripts/400.30.10_ApplicationImportManagedDeviceFromG1.xlsx
+++ b/NformTester/NformTester/Keywordscripts/400.30.10_ApplicationImportManagedDeviceFromG1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="839">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3773,6 +3773,10 @@
   </si>
   <si>
     <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4754,10 +4758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4915,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>191</v>
@@ -5520,7 +5524,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>191</v>
@@ -6704,445 +6708,9 @@
       <c r="N72" s="12"/>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="3:15">
-      <c r="C73" s="4">
-        <v>72</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="11"/>
-    </row>
-    <row r="74" spans="3:15">
-      <c r="C74" s="4">
-        <v>73</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="11"/>
-    </row>
-    <row r="75" spans="3:15">
-      <c r="C75" s="4">
-        <v>74</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="11"/>
-    </row>
-    <row r="76" spans="3:15">
-      <c r="C76" s="4">
-        <v>75</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="3:15">
-      <c r="C77" s="4">
-        <v>76</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="11"/>
-    </row>
-    <row r="78" spans="3:15">
-      <c r="C78" s="4">
-        <v>77</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="11"/>
-    </row>
-    <row r="79" spans="3:15">
-      <c r="C79" s="4">
-        <v>78</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="11"/>
-    </row>
-    <row r="80" spans="3:15">
-      <c r="C80" s="4">
-        <v>79</v>
-      </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="3:15">
-      <c r="C81" s="4">
-        <v>80</v>
-      </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="11"/>
-    </row>
-    <row r="82" spans="3:15">
-      <c r="C82" s="4">
-        <v>81</v>
-      </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="11"/>
-    </row>
-    <row r="83" spans="3:15">
-      <c r="C83" s="4">
-        <v>82</v>
-      </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="11"/>
-    </row>
-    <row r="84" spans="3:15">
-      <c r="C84" s="4">
-        <v>83</v>
-      </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="11"/>
-    </row>
-    <row r="85" spans="3:15">
-      <c r="C85" s="4">
-        <v>84</v>
-      </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="11"/>
-    </row>
-    <row r="86" spans="3:15">
-      <c r="C86" s="4">
-        <v>85</v>
-      </c>
-      <c r="M86" s="4"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="11"/>
-    </row>
-    <row r="87" spans="3:15">
-      <c r="C87" s="4">
-        <v>86</v>
-      </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="11"/>
-    </row>
-    <row r="88" spans="3:15">
-      <c r="C88" s="4">
-        <v>87</v>
-      </c>
-      <c r="M88" s="4"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="3:15">
-      <c r="C89" s="4">
-        <v>88</v>
-      </c>
-      <c r="M89" s="4"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="11"/>
-    </row>
-    <row r="90" spans="3:15">
-      <c r="C90" s="4">
-        <v>89</v>
-      </c>
-      <c r="M90" s="4"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="3:15">
-      <c r="C91" s="4">
-        <v>90</v>
-      </c>
-      <c r="M91" s="4"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="11"/>
-    </row>
-    <row r="92" spans="3:15">
-      <c r="C92" s="4">
-        <v>91</v>
-      </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="3:15">
-      <c r="C93" s="4">
-        <v>92</v>
-      </c>
-      <c r="M93" s="4"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="11"/>
-    </row>
-    <row r="94" spans="3:15">
-      <c r="C94" s="4">
-        <v>93</v>
-      </c>
-      <c r="M94" s="4"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="3:15">
-      <c r="C95" s="4">
-        <v>94</v>
-      </c>
-      <c r="M95" s="4"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="11"/>
-    </row>
-    <row r="96" spans="3:15">
-      <c r="C96" s="4">
-        <v>95</v>
-      </c>
-      <c r="M96" s="4"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="11"/>
-    </row>
-    <row r="97" spans="3:15">
-      <c r="C97" s="4">
-        <v>96</v>
-      </c>
-      <c r="M97" s="4"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="11"/>
-    </row>
-    <row r="98" spans="3:15">
-      <c r="C98" s="4">
-        <v>97</v>
-      </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="3:15">
-      <c r="C99" s="4">
-        <v>98</v>
-      </c>
-      <c r="M99" s="4"/>
-      <c r="O99" s="11"/>
-    </row>
-    <row r="100" spans="3:15">
-      <c r="C100" s="4">
-        <v>99</v>
-      </c>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="3:15">
-      <c r="C101" s="4">
-        <v>100</v>
-      </c>
-      <c r="O101" s="11"/>
-    </row>
-    <row r="102" spans="3:15">
-      <c r="C102" s="4">
-        <v>101</v>
-      </c>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="3:15">
-      <c r="C103" s="4">
-        <v>102</v>
-      </c>
-      <c r="O103" s="11"/>
-    </row>
-    <row r="104" spans="3:15">
-      <c r="C104" s="4">
-        <v>103</v>
-      </c>
-      <c r="O104" s="11"/>
-    </row>
-    <row r="105" spans="3:15">
-      <c r="C105" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="3:15">
-      <c r="C106" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="3:15">
-      <c r="C107" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="3:15">
-      <c r="C108" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="3:15">
-      <c r="C109" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="3:15">
-      <c r="C110" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="3:15">
-      <c r="C111" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="3:15">
-      <c r="C112" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="4">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="4">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3">
-      <c r="C130" s="4">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="4">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N98">
+  <conditionalFormatting sqref="N2:N72">
     <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7151,17 +6719,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G29 G31:G38 G40:G68 G70:G79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G29 G31:G38 G40:G68 G70:G72">
       <formula1>INDIRECT(SUBSTITUTE(E4&amp;F4," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F72">
+      <formula1>OFFSET(INDIRECT($E4),0,0,COUNTA(INDIRECT(E4&amp;"Col")),1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D37:D38 D6:D8 D44:D45 D49:D67">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E34 E36:E79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E34 E36:E72">
       <formula1>Forms</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F79">
-      <formula1>OFFSET(INDIRECT($E4),0,0,COUNTA(INDIRECT(E4&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NformTester/NformTester/Keywordscripts/400.30.10_ApplicationImportManagedDeviceFromG1.xlsx
+++ b/NformTester/NformTester/Keywordscripts/400.30.10_ApplicationImportManagedDeviceFromG1.xlsx
@@ -4760,14 +4760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>

--- a/NformTester/NformTester/Keywordscripts/400.30.10_ApplicationImportManagedDeviceFromG1.xlsx
+++ b/NformTester/NformTester/Keywordscripts/400.30.10_ApplicationImportManagedDeviceFromG1.xlsx
@@ -3661,10 +3661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3777,6 +3773,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4760,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>191</v>
@@ -4964,16 +4964,16 @@
         <v>806</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K6" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>809</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>810</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="21"/>
@@ -4989,7 +4989,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>800</v>
@@ -5029,19 +5029,19 @@
         <v>805</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J8" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="18" t="s">
         <v>809</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>810</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="11"/>
@@ -5057,7 +5057,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -5235,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -5425,7 +5425,7 @@
         <v>796</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>312</v>
@@ -5470,7 +5470,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>728</v>
@@ -5524,7 +5524,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>191</v>
@@ -5549,7 +5549,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="4"/>
@@ -5627,7 +5627,7 @@
         <v>573</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H30" s="18">
         <v>3</v>
@@ -5684,13 +5684,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>798</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -5753,18 +5753,18 @@
         <v>34</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>834</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>835</v>
       </c>
       <c r="J35" s="18" t="b">
         <v>1</v>
@@ -5849,10 +5849,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>822</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>573</v>
@@ -5861,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -5876,10 +5876,10 @@
         <v>39</v>
       </c>
       <c r="D40" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>822</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>178</v>
@@ -5901,7 +5901,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>578</v>
@@ -5926,7 +5926,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>800</v>
@@ -5949,10 +5949,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>822</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>95</v>
@@ -6024,7 +6024,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>300</v>
@@ -6036,7 +6036,7 @@
         <v>56</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -6051,7 +6051,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>300</v>
@@ -6076,7 +6076,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>300</v>
@@ -6163,7 +6163,7 @@
         <v>56</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -6240,7 +6240,7 @@
         <v>56</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -6317,7 +6317,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -6438,7 +6438,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>2</v>
@@ -6469,7 +6469,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6584,7 +6584,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>392</v>
@@ -6609,7 +6609,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>392</v>
@@ -6621,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6636,7 +6636,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>392</v>
@@ -6661,7 +6661,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>392</v>
@@ -6673,7 +6673,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6688,7 +6688,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>392</v>
